--- a/labelled_csv_files/labelled_M_0098_09y8m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0098_09y8m_1_fa.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499F8505-13C7-6E41-BAB2-5B9ED8466EE7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A54ECE82-353B-5848-A979-519F22795C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="10500" windowHeight="15000"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="13080" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0098_09y8m_1_fa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -990,7 +998,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1824,11 +1832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B180" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2458,6 +2466,7 @@
         <v>64</v>
       </c>
       <c r="C32">
+        <f>D31</f>
         <v>18.295000000000002</v>
       </c>
       <c r="D32">
@@ -2478,6 +2487,7 @@
         <v>65</v>
       </c>
       <c r="C33">
+        <f t="shared" ref="C33:C41" si="0">D32</f>
         <v>19.754999999999999</v>
       </c>
       <c r="D33">
@@ -2498,10 +2508,11 @@
         <v>66</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
         <v>21.88</v>
       </c>
       <c r="D34">
-        <v>22.15</v>
+        <v>22.85</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
@@ -2518,10 +2529,11 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>22.15</v>
+        <f t="shared" si="0"/>
+        <v>22.85</v>
       </c>
       <c r="D35">
-        <v>22.43</v>
+        <v>23.43</v>
       </c>
       <c r="E35" t="s">
         <v>57</v>
@@ -2538,7 +2550,8 @@
         <v>68</v>
       </c>
       <c r="C36">
-        <v>22.43</v>
+        <f t="shared" si="0"/>
+        <v>23.43</v>
       </c>
       <c r="D36">
         <v>25.15</v>
@@ -2558,6 +2571,7 @@
         <v>70</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
         <v>25.15</v>
       </c>
       <c r="D37">
@@ -2578,6 +2592,7 @@
         <v>72</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
         <v>26.364999999999998</v>
       </c>
       <c r="D38">
@@ -2598,6 +2613,7 @@
         <v>74</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
         <v>26.484999999999999</v>
       </c>
       <c r="D39">
@@ -2618,6 +2634,7 @@
         <v>76</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
         <v>26.91</v>
       </c>
       <c r="D40">
@@ -2638,6 +2655,7 @@
         <v>77</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
         <v>28.475000000000001</v>
       </c>
       <c r="D41">
@@ -3221,7 +3239,7 @@
         <v>43.594999999999999</v>
       </c>
       <c r="D70">
-        <v>51.8</v>
+        <v>44.8</v>
       </c>
       <c r="E70" t="s">
         <v>121</v>
@@ -3721,7 +3739,7 @@
         <v>68.364999999999995</v>
       </c>
       <c r="D95">
-        <v>73.254999999999995</v>
+        <v>69.254999999999995</v>
       </c>
       <c r="E95" t="s">
         <v>161</v>
@@ -3738,7 +3756,8 @@
         <v>162</v>
       </c>
       <c r="C96">
-        <v>73.254999999999995</v>
+        <f>D95</f>
+        <v>69.254999999999995</v>
       </c>
       <c r="D96">
         <v>73.564999999999998</v>
@@ -3758,6 +3777,7 @@
         <v>164</v>
       </c>
       <c r="C97">
+        <f t="shared" ref="C97:C99" si="1">D96</f>
         <v>73.564999999999998</v>
       </c>
       <c r="D97">
@@ -3778,6 +3798,7 @@
         <v>165</v>
       </c>
       <c r="C98">
+        <f t="shared" si="1"/>
         <v>73.67</v>
       </c>
       <c r="D98">
@@ -3798,6 +3819,7 @@
         <v>167</v>
       </c>
       <c r="C99">
+        <f t="shared" si="1"/>
         <v>74.025000000000006</v>
       </c>
       <c r="D99">
@@ -3961,7 +3983,7 @@
         <v>77.5</v>
       </c>
       <c r="D107">
-        <v>84.224999999999994</v>
+        <v>77.849999999999994</v>
       </c>
       <c r="E107" t="s">
         <v>180</v>
@@ -5141,7 +5163,7 @@
         <v>118.58</v>
       </c>
       <c r="D166">
-        <v>121.075</v>
+        <v>120.075</v>
       </c>
       <c r="E166" t="s">
         <v>149</v>
@@ -5418,10 +5440,10 @@
         <v>284</v>
       </c>
       <c r="C180">
-        <v>126.59</v>
+        <v>129.59</v>
       </c>
       <c r="D180">
-        <v>126.79</v>
+        <v>130.29</v>
       </c>
       <c r="E180" t="s">
         <v>285</v>
@@ -5438,10 +5460,10 @@
         <v>286</v>
       </c>
       <c r="C181">
-        <v>126.79</v>
+        <v>130.29</v>
       </c>
       <c r="D181">
-        <v>129.51</v>
+        <v>130.59</v>
       </c>
       <c r="E181" t="s">
         <v>131</v>
@@ -5458,7 +5480,7 @@
         <v>287</v>
       </c>
       <c r="C182">
-        <v>129.51</v>
+        <v>130.59</v>
       </c>
       <c r="D182">
         <v>131.13999999999999</v>
